--- a/downloads/location_voitures/locations.xlsx
+++ b/downloads/location_voitures/locations.xlsx
@@ -5,24 +5,28 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\3STI-BD\downloads\notes_db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\3STI-BD\downloads\location_voitures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F32ECCA-55A1-49A1-B40C-6A86931B1BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766337AC-65B0-4CB6-9EFA-5CD41EE4E7FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="843" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="843" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NbreJoursLocationsParVoiture" sheetId="4" r:id="rId1"/>
     <sheet name="NbreJoursLocationsParClient" sheetId="5" r:id="rId2"/>
     <sheet name="NbreJoursLocationParVoitureMois" sheetId="6" r:id="rId3"/>
     <sheet name="Locations" sheetId="1" r:id="rId4"/>
-    <sheet name="Vehicules" sheetId="2" r:id="rId5"/>
-    <sheet name="Clients" sheetId="3" r:id="rId6"/>
+    <sheet name="Feuil1" sheetId="7" r:id="rId5"/>
+    <sheet name="Vehicules" sheetId="2" r:id="rId6"/>
+    <sheet name="Clients" sheetId="3" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Locations!$A$1:$J$651</definedName>
+  </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -33,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4360" uniqueCount="810">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4405" uniqueCount="810">
   <si>
     <t>matricule</t>
   </si>
@@ -2524,7 +2528,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2534,7 +2538,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11749,7 +11752,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{79A98E89-21B8-4797-AC0A-34C79BF8DBEB}" name="Tableau croisé dynamique1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{79A98E89-21B8-4797-AC0A-34C79BF8DBEB}" name="Tableau croisé dynamique1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField axis="axisRow" showAll="0">
@@ -12492,7 +12495,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2BD6C750-44A8-468A-8133-711CF9C2D7D0}" name="Tableau croisé dynamique2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2BD6C750-44A8-468A-8133-711CF9C2D7D0}" name="Tableau croisé dynamique2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A3:B259" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -13991,7 +13994,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DB7FB042-991B-47A1-80B8-F9E731BB6648}" name="Tableau croisé dynamique3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DB7FB042-991B-47A1-80B8-F9E731BB6648}" name="Tableau croisé dynamique3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:L17" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField axis="axisCol" showAll="0">
@@ -15190,7 +15193,7 @@
       <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4">
         <v>310</v>
       </c>
     </row>
@@ -15198,7 +15201,7 @@
       <c r="A5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5">
         <v>273</v>
       </c>
     </row>
@@ -15206,7 +15209,7 @@
       <c r="A6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6">
         <v>272</v>
       </c>
     </row>
@@ -15214,7 +15217,7 @@
       <c r="A7" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7">
         <v>257</v>
       </c>
     </row>
@@ -15222,7 +15225,7 @@
       <c r="A8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8">
         <v>256</v>
       </c>
     </row>
@@ -15230,7 +15233,7 @@
       <c r="A9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9">
         <v>280</v>
       </c>
     </row>
@@ -15238,7 +15241,7 @@
       <c r="A10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10">
         <v>282</v>
       </c>
     </row>
@@ -15246,7 +15249,7 @@
       <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11">
         <v>278</v>
       </c>
     </row>
@@ -15254,7 +15257,7 @@
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12">
         <v>243</v>
       </c>
     </row>
@@ -15262,7 +15265,7 @@
       <c r="A13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13">
         <v>251</v>
       </c>
     </row>
@@ -15270,7 +15273,7 @@
       <c r="A14" s="4" t="s">
         <v>795</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14">
         <v>2702</v>
       </c>
     </row>
@@ -15320,7 +15323,7 @@
       <c r="A4" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4">
         <v>60</v>
       </c>
     </row>
@@ -15328,7 +15331,7 @@
       <c r="A5" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5">
         <v>54</v>
       </c>
     </row>
@@ -15336,7 +15339,7 @@
       <c r="A6" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6">
         <v>45</v>
       </c>
     </row>
@@ -15344,7 +15347,7 @@
       <c r="A7" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7">
         <v>45</v>
       </c>
     </row>
@@ -15352,7 +15355,7 @@
       <c r="A8" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8">
         <v>43</v>
       </c>
     </row>
@@ -15360,7 +15363,7 @@
       <c r="A9" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9">
         <v>41</v>
       </c>
     </row>
@@ -15368,7 +15371,7 @@
       <c r="A10" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10">
         <v>41</v>
       </c>
     </row>
@@ -15376,7 +15379,7 @@
       <c r="A11" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11">
         <v>41</v>
       </c>
     </row>
@@ -15384,7 +15387,7 @@
       <c r="A12" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12">
         <v>40</v>
       </c>
     </row>
@@ -15392,7 +15395,7 @@
       <c r="A13" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13">
         <v>40</v>
       </c>
     </row>
@@ -15400,7 +15403,7 @@
       <c r="A14" s="4" t="s">
         <v>646</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14">
         <v>37</v>
       </c>
     </row>
@@ -15408,7 +15411,7 @@
       <c r="A15" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15">
         <v>36</v>
       </c>
     </row>
@@ -15416,7 +15419,7 @@
       <c r="A16" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16">
         <v>36</v>
       </c>
     </row>
@@ -15424,7 +15427,7 @@
       <c r="A17" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17">
         <v>35</v>
       </c>
     </row>
@@ -15432,7 +15435,7 @@
       <c r="A18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18">
         <v>34</v>
       </c>
     </row>
@@ -15440,7 +15443,7 @@
       <c r="A19" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19">
         <v>33</v>
       </c>
     </row>
@@ -15448,7 +15451,7 @@
       <c r="A20" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20">
         <v>32</v>
       </c>
     </row>
@@ -15456,7 +15459,7 @@
       <c r="A21" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21">
         <v>32</v>
       </c>
     </row>
@@ -15464,7 +15467,7 @@
       <c r="A22" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22">
         <v>31</v>
       </c>
     </row>
@@ -15472,7 +15475,7 @@
       <c r="A23" s="4" t="s">
         <v>676</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23">
         <v>30</v>
       </c>
     </row>
@@ -15480,7 +15483,7 @@
       <c r="A24" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24">
         <v>30</v>
       </c>
     </row>
@@ -15488,7 +15491,7 @@
       <c r="A25" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25">
         <v>29</v>
       </c>
     </row>
@@ -15496,7 +15499,7 @@
       <c r="A26" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26">
         <v>29</v>
       </c>
     </row>
@@ -15504,7 +15507,7 @@
       <c r="A27" s="4" t="s">
         <v>667</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27">
         <v>29</v>
       </c>
     </row>
@@ -15512,7 +15515,7 @@
       <c r="A28" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28">
         <v>29</v>
       </c>
     </row>
@@ -15520,7 +15523,7 @@
       <c r="A29" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29">
         <v>28</v>
       </c>
     </row>
@@ -15528,7 +15531,7 @@
       <c r="A30" s="4" t="s">
         <v>580</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30">
         <v>28</v>
       </c>
     </row>
@@ -15536,7 +15539,7 @@
       <c r="A31" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31">
         <v>27</v>
       </c>
     </row>
@@ -15544,7 +15547,7 @@
       <c r="A32" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32">
         <v>26</v>
       </c>
     </row>
@@ -15552,7 +15555,7 @@
       <c r="A33" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33">
         <v>26</v>
       </c>
     </row>
@@ -15560,7 +15563,7 @@
       <c r="A34" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34">
         <v>26</v>
       </c>
     </row>
@@ -15568,7 +15571,7 @@
       <c r="A35" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35">
         <v>26</v>
       </c>
     </row>
@@ -15576,7 +15579,7 @@
       <c r="A36" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36">
         <v>25</v>
       </c>
     </row>
@@ -15584,7 +15587,7 @@
       <c r="A37" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37">
         <v>25</v>
       </c>
     </row>
@@ -15592,7 +15595,7 @@
       <c r="A38" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38">
         <v>25</v>
       </c>
     </row>
@@ -15600,7 +15603,7 @@
       <c r="A39" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39">
         <v>24</v>
       </c>
     </row>
@@ -15608,7 +15611,7 @@
       <c r="A40" s="4" t="s">
         <v>673</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40">
         <v>24</v>
       </c>
     </row>
@@ -15616,7 +15619,7 @@
       <c r="A41" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41">
         <v>24</v>
       </c>
     </row>
@@ -15624,7 +15627,7 @@
       <c r="A42" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42">
         <v>24</v>
       </c>
     </row>
@@ -15632,7 +15635,7 @@
       <c r="A43" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43">
         <v>23</v>
       </c>
     </row>
@@ -15640,7 +15643,7 @@
       <c r="A44" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44">
         <v>23</v>
       </c>
     </row>
@@ -15648,7 +15651,7 @@
       <c r="A45" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45">
         <v>23</v>
       </c>
     </row>
@@ -15656,7 +15659,7 @@
       <c r="A46" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46">
         <v>23</v>
       </c>
     </row>
@@ -15664,7 +15667,7 @@
       <c r="A47" s="4" t="s">
         <v>592</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47">
         <v>22</v>
       </c>
     </row>
@@ -15672,7 +15675,7 @@
       <c r="A48" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B48">
         <v>22</v>
       </c>
     </row>
@@ -15680,7 +15683,7 @@
       <c r="A49" s="4" t="s">
         <v>763</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B49">
         <v>22</v>
       </c>
     </row>
@@ -15688,7 +15691,7 @@
       <c r="A50" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="B50" s="5">
+      <c r="B50">
         <v>22</v>
       </c>
     </row>
@@ -15696,7 +15699,7 @@
       <c r="A51" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B51">
         <v>21</v>
       </c>
     </row>
@@ -15704,7 +15707,7 @@
       <c r="A52" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B52">
         <v>21</v>
       </c>
     </row>
@@ -15712,7 +15715,7 @@
       <c r="A53" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="B53" s="5">
+      <c r="B53">
         <v>21</v>
       </c>
     </row>
@@ -15720,7 +15723,7 @@
       <c r="A54" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B54">
         <v>21</v>
       </c>
     </row>
@@ -15728,7 +15731,7 @@
       <c r="A55" s="4" t="s">
         <v>781</v>
       </c>
-      <c r="B55" s="5">
+      <c r="B55">
         <v>21</v>
       </c>
     </row>
@@ -15736,7 +15739,7 @@
       <c r="A56" s="4" t="s">
         <v>712</v>
       </c>
-      <c r="B56" s="5">
+      <c r="B56">
         <v>21</v>
       </c>
     </row>
@@ -15744,7 +15747,7 @@
       <c r="A57" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="B57" s="5">
+      <c r="B57">
         <v>21</v>
       </c>
     </row>
@@ -15752,7 +15755,7 @@
       <c r="A58" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B58" s="5">
+      <c r="B58">
         <v>21</v>
       </c>
     </row>
@@ -15760,7 +15763,7 @@
       <c r="A59" s="4" t="s">
         <v>700</v>
       </c>
-      <c r="B59" s="5">
+      <c r="B59">
         <v>21</v>
       </c>
     </row>
@@ -15768,7 +15771,7 @@
       <c r="A60" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B60" s="5">
+      <c r="B60">
         <v>20</v>
       </c>
     </row>
@@ -15776,7 +15779,7 @@
       <c r="A61" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="B61" s="5">
+      <c r="B61">
         <v>18</v>
       </c>
     </row>
@@ -15784,7 +15787,7 @@
       <c r="A62" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="B62" s="5">
+      <c r="B62">
         <v>18</v>
       </c>
     </row>
@@ -15792,7 +15795,7 @@
       <c r="A63" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B63" s="5">
+      <c r="B63">
         <v>17</v>
       </c>
     </row>
@@ -15800,7 +15803,7 @@
       <c r="A64" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="B64" s="5">
+      <c r="B64">
         <v>17</v>
       </c>
     </row>
@@ -15808,7 +15811,7 @@
       <c r="A65" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="B65" s="5">
+      <c r="B65">
         <v>17</v>
       </c>
     </row>
@@ -15816,7 +15819,7 @@
       <c r="A66" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B66" s="5">
+      <c r="B66">
         <v>16</v>
       </c>
     </row>
@@ -15824,7 +15827,7 @@
       <c r="A67" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B67" s="5">
+      <c r="B67">
         <v>16</v>
       </c>
     </row>
@@ -15832,7 +15835,7 @@
       <c r="A68" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="B68" s="5">
+      <c r="B68">
         <v>16</v>
       </c>
     </row>
@@ -15840,7 +15843,7 @@
       <c r="A69" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B69" s="5">
+      <c r="B69">
         <v>16</v>
       </c>
     </row>
@@ -15848,7 +15851,7 @@
       <c r="A70" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="B70" s="5">
+      <c r="B70">
         <v>15</v>
       </c>
     </row>
@@ -15856,7 +15859,7 @@
       <c r="A71" s="4" t="s">
         <v>733</v>
       </c>
-      <c r="B71" s="5">
+      <c r="B71">
         <v>15</v>
       </c>
     </row>
@@ -15864,7 +15867,7 @@
       <c r="A72" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="B72" s="5">
+      <c r="B72">
         <v>15</v>
       </c>
     </row>
@@ -15872,7 +15875,7 @@
       <c r="A73" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="B73" s="5">
+      <c r="B73">
         <v>15</v>
       </c>
     </row>
@@ -15880,7 +15883,7 @@
       <c r="A74" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="B74" s="5">
+      <c r="B74">
         <v>14</v>
       </c>
     </row>
@@ -15888,7 +15891,7 @@
       <c r="A75" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="B75" s="5">
+      <c r="B75">
         <v>14</v>
       </c>
     </row>
@@ -15896,7 +15899,7 @@
       <c r="A76" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="B76" s="5">
+      <c r="B76">
         <v>14</v>
       </c>
     </row>
@@ -15904,7 +15907,7 @@
       <c r="A77" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="B77" s="5">
+      <c r="B77">
         <v>13</v>
       </c>
     </row>
@@ -15912,7 +15915,7 @@
       <c r="A78" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="B78" s="5">
+      <c r="B78">
         <v>13</v>
       </c>
     </row>
@@ -15920,7 +15923,7 @@
       <c r="A79" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="B79" s="5">
+      <c r="B79">
         <v>13</v>
       </c>
     </row>
@@ -15928,7 +15931,7 @@
       <c r="A80" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B80" s="5">
+      <c r="B80">
         <v>12</v>
       </c>
     </row>
@@ -15936,7 +15939,7 @@
       <c r="A81" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="B81" s="5">
+      <c r="B81">
         <v>12</v>
       </c>
     </row>
@@ -15944,7 +15947,7 @@
       <c r="A82" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="B82" s="5">
+      <c r="B82">
         <v>12</v>
       </c>
     </row>
@@ -15952,7 +15955,7 @@
       <c r="A83" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B83" s="5">
+      <c r="B83">
         <v>12</v>
       </c>
     </row>
@@ -15960,7 +15963,7 @@
       <c r="A84" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B84" s="5">
+      <c r="B84">
         <v>11</v>
       </c>
     </row>
@@ -15968,7 +15971,7 @@
       <c r="A85" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="B85" s="5">
+      <c r="B85">
         <v>11</v>
       </c>
     </row>
@@ -15976,7 +15979,7 @@
       <c r="A86" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B86" s="5">
+      <c r="B86">
         <v>11</v>
       </c>
     </row>
@@ -15984,7 +15987,7 @@
       <c r="A87" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="B87" s="5">
+      <c r="B87">
         <v>11</v>
       </c>
     </row>
@@ -15992,7 +15995,7 @@
       <c r="A88" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="B88" s="5">
+      <c r="B88">
         <v>11</v>
       </c>
     </row>
@@ -16000,7 +16003,7 @@
       <c r="A89" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="B89" s="5">
+      <c r="B89">
         <v>11</v>
       </c>
     </row>
@@ -16008,7 +16011,7 @@
       <c r="A90" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="B90" s="5">
+      <c r="B90">
         <v>11</v>
       </c>
     </row>
@@ -16016,7 +16019,7 @@
       <c r="A91" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B91" s="5">
+      <c r="B91">
         <v>11</v>
       </c>
     </row>
@@ -16024,7 +16027,7 @@
       <c r="A92" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B92" s="5">
+      <c r="B92">
         <v>11</v>
       </c>
     </row>
@@ -16032,7 +16035,7 @@
       <c r="A93" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B93" s="5">
+      <c r="B93">
         <v>10</v>
       </c>
     </row>
@@ -16040,7 +16043,7 @@
       <c r="A94" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="B94" s="5">
+      <c r="B94">
         <v>10</v>
       </c>
     </row>
@@ -16048,7 +16051,7 @@
       <c r="A95" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="B95" s="5">
+      <c r="B95">
         <v>10</v>
       </c>
     </row>
@@ -16056,7 +16059,7 @@
       <c r="A96" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="B96" s="5">
+      <c r="B96">
         <v>10</v>
       </c>
     </row>
@@ -16064,7 +16067,7 @@
       <c r="A97" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B97" s="5">
+      <c r="B97">
         <v>10</v>
       </c>
     </row>
@@ -16072,7 +16075,7 @@
       <c r="A98" s="4" t="s">
         <v>634</v>
       </c>
-      <c r="B98" s="5">
+      <c r="B98">
         <v>10</v>
       </c>
     </row>
@@ -16080,7 +16083,7 @@
       <c r="A99" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="B99" s="5">
+      <c r="B99">
         <v>9</v>
       </c>
     </row>
@@ -16088,7 +16091,7 @@
       <c r="A100" s="4" t="s">
         <v>706</v>
       </c>
-      <c r="B100" s="5">
+      <c r="B100">
         <v>9</v>
       </c>
     </row>
@@ -16096,7 +16099,7 @@
       <c r="A101" s="4" t="s">
         <v>637</v>
       </c>
-      <c r="B101" s="5">
+      <c r="B101">
         <v>9</v>
       </c>
     </row>
@@ -16104,7 +16107,7 @@
       <c r="A102" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B102" s="5">
+      <c r="B102">
         <v>8</v>
       </c>
     </row>
@@ -16112,7 +16115,7 @@
       <c r="A103" s="4" t="s">
         <v>595</v>
       </c>
-      <c r="B103" s="5">
+      <c r="B103">
         <v>8</v>
       </c>
     </row>
@@ -16120,7 +16123,7 @@
       <c r="A104" s="4" t="s">
         <v>730</v>
       </c>
-      <c r="B104" s="5">
+      <c r="B104">
         <v>8</v>
       </c>
     </row>
@@ -16128,7 +16131,7 @@
       <c r="A105" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="B105" s="5">
+      <c r="B105">
         <v>8</v>
       </c>
     </row>
@@ -16136,7 +16139,7 @@
       <c r="A106" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B106" s="5">
+      <c r="B106">
         <v>8</v>
       </c>
     </row>
@@ -16144,7 +16147,7 @@
       <c r="A107" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="B107" s="5">
+      <c r="B107">
         <v>8</v>
       </c>
     </row>
@@ -16152,7 +16155,7 @@
       <c r="A108" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="B108" s="5">
+      <c r="B108">
         <v>8</v>
       </c>
     </row>
@@ -16160,7 +16163,7 @@
       <c r="A109" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="B109" s="5">
+      <c r="B109">
         <v>8</v>
       </c>
     </row>
@@ -16168,7 +16171,7 @@
       <c r="A110" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="B110" s="5">
+      <c r="B110">
         <v>8</v>
       </c>
     </row>
@@ -16176,7 +16179,7 @@
       <c r="A111" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="B111" s="5">
+      <c r="B111">
         <v>8</v>
       </c>
     </row>
@@ -16184,7 +16187,7 @@
       <c r="A112" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="B112" s="5">
+      <c r="B112">
         <v>8</v>
       </c>
     </row>
@@ -16192,7 +16195,7 @@
       <c r="A113" s="4" t="s">
         <v>601</v>
       </c>
-      <c r="B113" s="5">
+      <c r="B113">
         <v>7</v>
       </c>
     </row>
@@ -16200,7 +16203,7 @@
       <c r="A114" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B114" s="5">
+      <c r="B114">
         <v>7</v>
       </c>
     </row>
@@ -16208,7 +16211,7 @@
       <c r="A115" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="B115" s="5">
+      <c r="B115">
         <v>7</v>
       </c>
     </row>
@@ -16216,7 +16219,7 @@
       <c r="A116" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="B116" s="5">
+      <c r="B116">
         <v>7</v>
       </c>
     </row>
@@ -16224,7 +16227,7 @@
       <c r="A117" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="B117" s="5">
+      <c r="B117">
         <v>7</v>
       </c>
     </row>
@@ -16232,7 +16235,7 @@
       <c r="A118" s="4" t="s">
         <v>778</v>
       </c>
-      <c r="B118" s="5">
+      <c r="B118">
         <v>7</v>
       </c>
     </row>
@@ -16240,7 +16243,7 @@
       <c r="A119" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="B119" s="5">
+      <c r="B119">
         <v>7</v>
       </c>
     </row>
@@ -16248,7 +16251,7 @@
       <c r="A120" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="B120" s="5">
+      <c r="B120">
         <v>6</v>
       </c>
     </row>
@@ -16256,7 +16259,7 @@
       <c r="A121" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B121" s="5">
+      <c r="B121">
         <v>6</v>
       </c>
     </row>
@@ -16264,7 +16267,7 @@
       <c r="A122" s="4" t="s">
         <v>751</v>
       </c>
-      <c r="B122" s="5">
+      <c r="B122">
         <v>6</v>
       </c>
     </row>
@@ -16272,7 +16275,7 @@
       <c r="A123" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="B123" s="5">
+      <c r="B123">
         <v>6</v>
       </c>
     </row>
@@ -16280,7 +16283,7 @@
       <c r="A124" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="B124" s="5">
+      <c r="B124">
         <v>6</v>
       </c>
     </row>
@@ -16288,7 +16291,7 @@
       <c r="A125" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="B125" s="5">
+      <c r="B125">
         <v>6</v>
       </c>
     </row>
@@ -16296,7 +16299,7 @@
       <c r="A126" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B126" s="5">
+      <c r="B126">
         <v>6</v>
       </c>
     </row>
@@ -16304,7 +16307,7 @@
       <c r="A127" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B127" s="5">
+      <c r="B127">
         <v>6</v>
       </c>
     </row>
@@ -16312,7 +16315,7 @@
       <c r="A128" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="B128" s="5">
+      <c r="B128">
         <v>5</v>
       </c>
     </row>
@@ -16320,7 +16323,7 @@
       <c r="A129" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="B129" s="5">
+      <c r="B129">
         <v>5</v>
       </c>
     </row>
@@ -16328,7 +16331,7 @@
       <c r="A130" s="4" t="s">
         <v>679</v>
       </c>
-      <c r="B130" s="5">
+      <c r="B130">
         <v>5</v>
       </c>
     </row>
@@ -16336,7 +16339,7 @@
       <c r="A131" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B131" s="5">
+      <c r="B131">
         <v>5</v>
       </c>
     </row>
@@ -16344,7 +16347,7 @@
       <c r="A132" s="4" t="s">
         <v>775</v>
       </c>
-      <c r="B132" s="5">
+      <c r="B132">
         <v>5</v>
       </c>
     </row>
@@ -16352,7 +16355,7 @@
       <c r="A133" s="4" t="s">
         <v>628</v>
       </c>
-      <c r="B133" s="5">
+      <c r="B133">
         <v>5</v>
       </c>
     </row>
@@ -16360,7 +16363,7 @@
       <c r="A134" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="B134" s="5">
+      <c r="B134">
         <v>5</v>
       </c>
     </row>
@@ -16368,7 +16371,7 @@
       <c r="A135" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B135" s="5">
+      <c r="B135">
         <v>5</v>
       </c>
     </row>
@@ -16376,7 +16379,7 @@
       <c r="A136" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="B136" s="5">
+      <c r="B136">
         <v>5</v>
       </c>
     </row>
@@ -16384,7 +16387,7 @@
       <c r="A137" s="4" t="s">
         <v>598</v>
       </c>
-      <c r="B137" s="5">
+      <c r="B137">
         <v>5</v>
       </c>
     </row>
@@ -16392,7 +16395,7 @@
       <c r="A138" s="4" t="s">
         <v>682</v>
       </c>
-      <c r="B138" s="5">
+      <c r="B138">
         <v>5</v>
       </c>
     </row>
@@ -16400,7 +16403,7 @@
       <c r="A139" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="B139" s="5">
+      <c r="B139">
         <v>5</v>
       </c>
     </row>
@@ -16408,7 +16411,7 @@
       <c r="A140" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="B140" s="5">
+      <c r="B140">
         <v>5</v>
       </c>
     </row>
@@ -16416,7 +16419,7 @@
       <c r="A141" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="B141" s="5">
+      <c r="B141">
         <v>4</v>
       </c>
     </row>
@@ -16424,7 +16427,7 @@
       <c r="A142" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B142" s="5">
+      <c r="B142">
         <v>4</v>
       </c>
     </row>
@@ -16432,7 +16435,7 @@
       <c r="A143" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B143" s="5">
+      <c r="B143">
         <v>4</v>
       </c>
     </row>
@@ -16440,7 +16443,7 @@
       <c r="A144" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B144" s="5">
+      <c r="B144">
         <v>4</v>
       </c>
     </row>
@@ -16448,7 +16451,7 @@
       <c r="A145" s="4" t="s">
         <v>691</v>
       </c>
-      <c r="B145" s="5">
+      <c r="B145">
         <v>4</v>
       </c>
     </row>
@@ -16456,7 +16459,7 @@
       <c r="A146" s="4" t="s">
         <v>625</v>
       </c>
-      <c r="B146" s="5">
+      <c r="B146">
         <v>4</v>
       </c>
     </row>
@@ -16464,7 +16467,7 @@
       <c r="A147" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="B147" s="5">
+      <c r="B147">
         <v>4</v>
       </c>
     </row>
@@ -16472,7 +16475,7 @@
       <c r="A148" s="4" t="s">
         <v>784</v>
       </c>
-      <c r="B148" s="5">
+      <c r="B148">
         <v>4</v>
       </c>
     </row>
@@ -16480,7 +16483,7 @@
       <c r="A149" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="B149" s="5">
+      <c r="B149">
         <v>4</v>
       </c>
     </row>
@@ -16488,7 +16491,7 @@
       <c r="A150" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="B150" s="5">
+      <c r="B150">
         <v>4</v>
       </c>
     </row>
@@ -16496,7 +16499,7 @@
       <c r="A151" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B151" s="5">
+      <c r="B151">
         <v>3</v>
       </c>
     </row>
@@ -16504,7 +16507,7 @@
       <c r="A152" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="B152" s="5">
+      <c r="B152">
         <v>3</v>
       </c>
     </row>
@@ -16512,7 +16515,7 @@
       <c r="A153" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="B153" s="5">
+      <c r="B153">
         <v>3</v>
       </c>
     </row>
@@ -16520,7 +16523,7 @@
       <c r="A154" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B154" s="5">
+      <c r="B154">
         <v>3</v>
       </c>
     </row>
@@ -16528,7 +16531,7 @@
       <c r="A155" s="4" t="s">
         <v>577</v>
       </c>
-      <c r="B155" s="5">
+      <c r="B155">
         <v>3</v>
       </c>
     </row>
@@ -16536,7 +16539,7 @@
       <c r="A156" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="B156" s="5">
+      <c r="B156">
         <v>3</v>
       </c>
     </row>
@@ -16544,7 +16547,7 @@
       <c r="A157" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="B157" s="5">
+      <c r="B157">
         <v>3</v>
       </c>
     </row>
@@ -16552,7 +16555,7 @@
       <c r="A158" s="4" t="s">
         <v>742</v>
       </c>
-      <c r="B158" s="5">
+      <c r="B158">
         <v>3</v>
       </c>
     </row>
@@ -16560,7 +16563,7 @@
       <c r="A159" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="B159" s="5">
+      <c r="B159">
         <v>3</v>
       </c>
     </row>
@@ -16568,7 +16571,7 @@
       <c r="A160" s="4" t="s">
         <v>643</v>
       </c>
-      <c r="B160" s="5">
+      <c r="B160">
         <v>3</v>
       </c>
     </row>
@@ -16576,7 +16579,7 @@
       <c r="A161" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B161" s="5">
+      <c r="B161">
         <v>3</v>
       </c>
     </row>
@@ -16584,7 +16587,7 @@
       <c r="A162" s="4" t="s">
         <v>739</v>
       </c>
-      <c r="B162" s="5">
+      <c r="B162">
         <v>3</v>
       </c>
     </row>
@@ -16592,7 +16595,7 @@
       <c r="A163" s="4" t="s">
         <v>565</v>
       </c>
-      <c r="B163" s="5">
+      <c r="B163">
         <v>3</v>
       </c>
     </row>
@@ -16600,7 +16603,7 @@
       <c r="A164" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="B164" s="5">
+      <c r="B164">
         <v>3</v>
       </c>
     </row>
@@ -16608,7 +16611,7 @@
       <c r="A165" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B165" s="5">
+      <c r="B165">
         <v>3</v>
       </c>
     </row>
@@ -16616,7 +16619,7 @@
       <c r="A166" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="B166" s="5">
+      <c r="B166">
         <v>3</v>
       </c>
     </row>
@@ -16624,7 +16627,7 @@
       <c r="A167" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B167" s="5">
+      <c r="B167">
         <v>3</v>
       </c>
     </row>
@@ -16632,7 +16635,7 @@
       <c r="A168" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="B168" s="5">
+      <c r="B168">
         <v>3</v>
       </c>
     </row>
@@ -16640,7 +16643,7 @@
       <c r="A169" s="4" t="s">
         <v>718</v>
       </c>
-      <c r="B169" s="5">
+      <c r="B169">
         <v>3</v>
       </c>
     </row>
@@ -16648,7 +16651,7 @@
       <c r="A170" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="B170" s="5">
+      <c r="B170">
         <v>3</v>
       </c>
     </row>
@@ -16656,7 +16659,7 @@
       <c r="A171" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B171" s="5">
+      <c r="B171">
         <v>3</v>
       </c>
     </row>
@@ -16664,7 +16667,7 @@
       <c r="A172" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="B172" s="5">
+      <c r="B172">
         <v>3</v>
       </c>
     </row>
@@ -16672,7 +16675,7 @@
       <c r="A173" s="4" t="s">
         <v>586</v>
       </c>
-      <c r="B173" s="5">
+      <c r="B173">
         <v>3</v>
       </c>
     </row>
@@ -16680,7 +16683,7 @@
       <c r="A174" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="B174" s="5">
+      <c r="B174">
         <v>3</v>
       </c>
     </row>
@@ -16688,7 +16691,7 @@
       <c r="A175" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="B175" s="5">
+      <c r="B175">
         <v>3</v>
       </c>
     </row>
@@ -16696,7 +16699,7 @@
       <c r="A176" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B176" s="5">
+      <c r="B176">
         <v>3</v>
       </c>
     </row>
@@ -16704,7 +16707,7 @@
       <c r="A177" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="B177" s="5">
+      <c r="B177">
         <v>3</v>
       </c>
     </row>
@@ -16712,7 +16715,7 @@
       <c r="A178" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="B178" s="5">
+      <c r="B178">
         <v>2</v>
       </c>
     </row>
@@ -16720,7 +16723,7 @@
       <c r="A179" s="4" t="s">
         <v>709</v>
       </c>
-      <c r="B179" s="5">
+      <c r="B179">
         <v>2</v>
       </c>
     </row>
@@ -16728,7 +16731,7 @@
       <c r="A180" s="4" t="s">
         <v>757</v>
       </c>
-      <c r="B180" s="5">
+      <c r="B180">
         <v>2</v>
       </c>
     </row>
@@ -16736,7 +16739,7 @@
       <c r="A181" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="B181" s="5">
+      <c r="B181">
         <v>2</v>
       </c>
     </row>
@@ -16744,7 +16747,7 @@
       <c r="A182" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="B182" s="5">
+      <c r="B182">
         <v>2</v>
       </c>
     </row>
@@ -16752,7 +16755,7 @@
       <c r="A183" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B183" s="5">
+      <c r="B183">
         <v>2</v>
       </c>
     </row>
@@ -16760,7 +16763,7 @@
       <c r="A184" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B184" s="5">
+      <c r="B184">
         <v>2</v>
       </c>
     </row>
@@ -16768,7 +16771,7 @@
       <c r="A185" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B185" s="5">
+      <c r="B185">
         <v>2</v>
       </c>
     </row>
@@ -16776,7 +16779,7 @@
       <c r="A186" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B186" s="5">
+      <c r="B186">
         <v>2</v>
       </c>
     </row>
@@ -16784,7 +16787,7 @@
       <c r="A187" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B187" s="5">
+      <c r="B187">
         <v>2</v>
       </c>
     </row>
@@ -16792,7 +16795,7 @@
       <c r="A188" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="B188" s="5">
+      <c r="B188">
         <v>2</v>
       </c>
     </row>
@@ -16800,7 +16803,7 @@
       <c r="A189" s="4" t="s">
         <v>649</v>
       </c>
-      <c r="B189" s="5">
+      <c r="B189">
         <v>2</v>
       </c>
     </row>
@@ -16808,7 +16811,7 @@
       <c r="A190" s="4" t="s">
         <v>553</v>
       </c>
-      <c r="B190" s="5">
+      <c r="B190">
         <v>2</v>
       </c>
     </row>
@@ -16816,7 +16819,7 @@
       <c r="A191" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="B191" s="5">
+      <c r="B191">
         <v>2</v>
       </c>
     </row>
@@ -16824,7 +16827,7 @@
       <c r="A192" s="4" t="s">
         <v>571</v>
       </c>
-      <c r="B192" s="5">
+      <c r="B192">
         <v>2</v>
       </c>
     </row>
@@ -16832,7 +16835,7 @@
       <c r="A193" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="B193" s="5">
+      <c r="B193">
         <v>2</v>
       </c>
     </row>
@@ -16840,7 +16843,7 @@
       <c r="A194" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="B194" s="5">
+      <c r="B194">
         <v>2</v>
       </c>
     </row>
@@ -16848,7 +16851,7 @@
       <c r="A195" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="B195" s="5">
+      <c r="B195">
         <v>2</v>
       </c>
     </row>
@@ -16856,7 +16859,7 @@
       <c r="A196" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="B196" s="5">
+      <c r="B196">
         <v>2</v>
       </c>
     </row>
@@ -16864,7 +16867,7 @@
       <c r="A197" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B197" s="5">
+      <c r="B197">
         <v>2</v>
       </c>
     </row>
@@ -16872,7 +16875,7 @@
       <c r="A198" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="B198" s="5">
+      <c r="B198">
         <v>2</v>
       </c>
     </row>
@@ -16880,7 +16883,7 @@
       <c r="A199" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="B199" s="5">
+      <c r="B199">
         <v>2</v>
       </c>
     </row>
@@ -16888,7 +16891,7 @@
       <c r="A200" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="B200" s="5">
+      <c r="B200">
         <v>2</v>
       </c>
     </row>
@@ -16896,7 +16899,7 @@
       <c r="A201" s="4" t="s">
         <v>745</v>
       </c>
-      <c r="B201" s="5">
+      <c r="B201">
         <v>2</v>
       </c>
     </row>
@@ -16904,7 +16907,7 @@
       <c r="A202" s="4" t="s">
         <v>748</v>
       </c>
-      <c r="B202" s="5">
+      <c r="B202">
         <v>2</v>
       </c>
     </row>
@@ -16912,7 +16915,7 @@
       <c r="A203" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="B203" s="5">
+      <c r="B203">
         <v>2</v>
       </c>
     </row>
@@ -16920,7 +16923,7 @@
       <c r="A204" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="B204" s="5">
+      <c r="B204">
         <v>2</v>
       </c>
     </row>
@@ -16928,7 +16931,7 @@
       <c r="A205" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="B205" s="5">
+      <c r="B205">
         <v>2</v>
       </c>
     </row>
@@ -16936,7 +16939,7 @@
       <c r="A206" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="B206" s="5">
+      <c r="B206">
         <v>2</v>
       </c>
     </row>
@@ -16944,7 +16947,7 @@
       <c r="A207" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="B207" s="5">
+      <c r="B207">
         <v>2</v>
       </c>
     </row>
@@ -16952,7 +16955,7 @@
       <c r="A208" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="B208" s="5">
+      <c r="B208">
         <v>2</v>
       </c>
     </row>
@@ -16960,7 +16963,7 @@
       <c r="A209" s="4" t="s">
         <v>619</v>
       </c>
-      <c r="B209" s="5">
+      <c r="B209">
         <v>2</v>
       </c>
     </row>
@@ -16968,7 +16971,7 @@
       <c r="A210" s="4" t="s">
         <v>736</v>
       </c>
-      <c r="B210" s="5">
+      <c r="B210">
         <v>2</v>
       </c>
     </row>
@@ -16976,7 +16979,7 @@
       <c r="A211" s="4" t="s">
         <v>703</v>
       </c>
-      <c r="B211" s="5">
+      <c r="B211">
         <v>2</v>
       </c>
     </row>
@@ -16984,7 +16987,7 @@
       <c r="A212" s="4" t="s">
         <v>607</v>
       </c>
-      <c r="B212" s="5">
+      <c r="B212">
         <v>2</v>
       </c>
     </row>
@@ -16992,7 +16995,7 @@
       <c r="A213" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B213" s="5">
+      <c r="B213">
         <v>2</v>
       </c>
     </row>
@@ -17000,7 +17003,7 @@
       <c r="A214" s="4" t="s">
         <v>604</v>
       </c>
-      <c r="B214" s="5">
+      <c r="B214">
         <v>2</v>
       </c>
     </row>
@@ -17008,7 +17011,7 @@
       <c r="A215" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="B215" s="5">
+      <c r="B215">
         <v>2</v>
       </c>
     </row>
@@ -17016,7 +17019,7 @@
       <c r="A216" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="B216" s="5">
+      <c r="B216">
         <v>2</v>
       </c>
     </row>
@@ -17024,7 +17027,7 @@
       <c r="A217" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="B217" s="5">
+      <c r="B217">
         <v>2</v>
       </c>
     </row>
@@ -17032,7 +17035,7 @@
       <c r="A218" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B218" s="5">
+      <c r="B218">
         <v>2</v>
       </c>
     </row>
@@ -17040,7 +17043,7 @@
       <c r="A219" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="B219" s="5">
+      <c r="B219">
         <v>2</v>
       </c>
     </row>
@@ -17048,7 +17051,7 @@
       <c r="A220" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="B220" s="5">
+      <c r="B220">
         <v>2</v>
       </c>
     </row>
@@ -17056,7 +17059,7 @@
       <c r="A221" s="4" t="s">
         <v>721</v>
       </c>
-      <c r="B221" s="5">
+      <c r="B221">
         <v>2</v>
       </c>
     </row>
@@ -17064,7 +17067,7 @@
       <c r="A222" s="4" t="s">
         <v>574</v>
       </c>
-      <c r="B222" s="5">
+      <c r="B222">
         <v>2</v>
       </c>
     </row>
@@ -17072,7 +17075,7 @@
       <c r="A223" s="4" t="s">
         <v>616</v>
       </c>
-      <c r="B223" s="5">
+      <c r="B223">
         <v>1</v>
       </c>
     </row>
@@ -17080,7 +17083,7 @@
       <c r="A224" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="B224" s="5">
+      <c r="B224">
         <v>1</v>
       </c>
     </row>
@@ -17088,7 +17091,7 @@
       <c r="A225" s="4" t="s">
         <v>664</v>
       </c>
-      <c r="B225" s="5">
+      <c r="B225">
         <v>1</v>
       </c>
     </row>
@@ -17096,7 +17099,7 @@
       <c r="A226" s="4" t="s">
         <v>658</v>
       </c>
-      <c r="B226" s="5">
+      <c r="B226">
         <v>1</v>
       </c>
     </row>
@@ -17104,7 +17107,7 @@
       <c r="A227" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="B227" s="5">
+      <c r="B227">
         <v>1</v>
       </c>
     </row>
@@ -17112,7 +17115,7 @@
       <c r="A228" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="B228" s="5">
+      <c r="B228">
         <v>1</v>
       </c>
     </row>
@@ -17120,7 +17123,7 @@
       <c r="A229" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="B229" s="5">
+      <c r="B229">
         <v>1</v>
       </c>
     </row>
@@ -17128,7 +17131,7 @@
       <c r="A230" s="4" t="s">
         <v>694</v>
       </c>
-      <c r="B230" s="5">
+      <c r="B230">
         <v>1</v>
       </c>
     </row>
@@ -17136,7 +17139,7 @@
       <c r="A231" s="4" t="s">
         <v>754</v>
       </c>
-      <c r="B231" s="5">
+      <c r="B231">
         <v>1</v>
       </c>
     </row>
@@ -17144,7 +17147,7 @@
       <c r="A232" s="4" t="s">
         <v>613</v>
       </c>
-      <c r="B232" s="5">
+      <c r="B232">
         <v>1</v>
       </c>
     </row>
@@ -17152,7 +17155,7 @@
       <c r="A233" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="B233" s="5">
+      <c r="B233">
         <v>1</v>
       </c>
     </row>
@@ -17160,7 +17163,7 @@
       <c r="A234" s="4" t="s">
         <v>622</v>
       </c>
-      <c r="B234" s="5">
+      <c r="B234">
         <v>1</v>
       </c>
     </row>
@@ -17168,7 +17171,7 @@
       <c r="A235" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B235" s="5">
+      <c r="B235">
         <v>1</v>
       </c>
     </row>
@@ -17176,7 +17179,7 @@
       <c r="A236" s="4" t="s">
         <v>769</v>
       </c>
-      <c r="B236" s="5">
+      <c r="B236">
         <v>1</v>
       </c>
     </row>
@@ -17184,7 +17187,7 @@
       <c r="A237" s="4" t="s">
         <v>760</v>
       </c>
-      <c r="B237" s="5">
+      <c r="B237">
         <v>1</v>
       </c>
     </row>
@@ -17192,7 +17195,7 @@
       <c r="A238" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="B238" s="5">
+      <c r="B238">
         <v>1</v>
       </c>
     </row>
@@ -17200,7 +17203,7 @@
       <c r="A239" s="4" t="s">
         <v>727</v>
       </c>
-      <c r="B239" s="5">
+      <c r="B239">
         <v>1</v>
       </c>
     </row>
@@ -17208,7 +17211,7 @@
       <c r="A240" s="4" t="s">
         <v>697</v>
       </c>
-      <c r="B240" s="5">
+      <c r="B240">
         <v>1</v>
       </c>
     </row>
@@ -17216,7 +17219,7 @@
       <c r="A241" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="B241" s="5">
+      <c r="B241">
         <v>1</v>
       </c>
     </row>
@@ -17224,7 +17227,7 @@
       <c r="A242" s="4" t="s">
         <v>715</v>
       </c>
-      <c r="B242" s="5">
+      <c r="B242">
         <v>1</v>
       </c>
     </row>
@@ -17232,7 +17235,7 @@
       <c r="A243" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="B243" s="5">
+      <c r="B243">
         <v>1</v>
       </c>
     </row>
@@ -17240,7 +17243,7 @@
       <c r="A244" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B244" s="5">
+      <c r="B244">
         <v>1</v>
       </c>
     </row>
@@ -17248,7 +17251,7 @@
       <c r="A245" s="4" t="s">
         <v>640</v>
       </c>
-      <c r="B245" s="5">
+      <c r="B245">
         <v>1</v>
       </c>
     </row>
@@ -17256,7 +17259,7 @@
       <c r="A246" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="B246" s="5">
+      <c r="B246">
         <v>1</v>
       </c>
     </row>
@@ -17264,7 +17267,7 @@
       <c r="A247" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="B247" s="5">
+      <c r="B247">
         <v>1</v>
       </c>
     </row>
@@ -17272,7 +17275,7 @@
       <c r="A248" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="B248" s="5">
+      <c r="B248">
         <v>1</v>
       </c>
     </row>
@@ -17280,7 +17283,7 @@
       <c r="A249" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="B249" s="5">
+      <c r="B249">
         <v>1</v>
       </c>
     </row>
@@ -17288,7 +17291,7 @@
       <c r="A250" s="4" t="s">
         <v>688</v>
       </c>
-      <c r="B250" s="5">
+      <c r="B250">
         <v>1</v>
       </c>
     </row>
@@ -17296,7 +17299,7 @@
       <c r="A251" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="B251" s="5">
+      <c r="B251">
         <v>1</v>
       </c>
     </row>
@@ -17304,7 +17307,7 @@
       <c r="A252" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B252" s="5">
+      <c r="B252">
         <v>1</v>
       </c>
     </row>
@@ -17312,7 +17315,7 @@
       <c r="A253" s="4" t="s">
         <v>670</v>
       </c>
-      <c r="B253" s="5">
+      <c r="B253">
         <v>1</v>
       </c>
     </row>
@@ -17320,7 +17323,7 @@
       <c r="A254" s="4" t="s">
         <v>685</v>
       </c>
-      <c r="B254" s="5">
+      <c r="B254">
         <v>1</v>
       </c>
     </row>
@@ -17328,7 +17331,7 @@
       <c r="A255" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="B255" s="5">
+      <c r="B255">
         <v>1</v>
       </c>
     </row>
@@ -17336,7 +17339,7 @@
       <c r="A256" s="4" t="s">
         <v>772</v>
       </c>
-      <c r="B256" s="5">
+      <c r="B256">
         <v>1</v>
       </c>
     </row>
@@ -17344,7 +17347,7 @@
       <c r="A257" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="B257" s="5">
+      <c r="B257">
         <v>1</v>
       </c>
     </row>
@@ -17352,7 +17355,7 @@
       <c r="A258" s="4" t="s">
         <v>766</v>
       </c>
-      <c r="B258" s="5">
+      <c r="B258">
         <v>1</v>
       </c>
     </row>
@@ -17360,7 +17363,7 @@
       <c r="A259" s="4" t="s">
         <v>795</v>
       </c>
-      <c r="B259" s="5">
+      <c r="B259">
         <v>2702</v>
       </c>
     </row>
@@ -17529,37 +17532,37 @@
       <c r="A5" s="4" t="s">
         <v>798</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5">
         <v>49</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5">
         <v>28</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5">
         <v>23</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5">
         <v>19</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5">
         <v>27</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5">
         <v>22</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5">
         <v>15</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5">
         <v>19</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5">
         <v>9</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5">
         <v>26</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5">
         <v>237</v>
       </c>
     </row>
@@ -17567,37 +17570,37 @@
       <c r="A6" s="4" t="s">
         <v>799</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6">
         <v>18</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6">
         <v>26</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6">
         <v>16</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6">
         <v>16</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6">
         <v>25</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6">
         <v>48</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6">
         <v>23</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6">
         <v>19</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6">
         <v>9</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6">
         <v>14</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6">
         <v>214</v>
       </c>
     </row>
@@ -17605,37 +17608,37 @@
       <c r="A7" s="4" t="s">
         <v>800</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7">
         <v>24</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7">
         <v>35</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7">
         <v>33</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7">
         <v>11</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7">
         <v>10</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7">
         <v>10</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7">
         <v>18</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7">
         <v>22</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7">
         <v>23</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7">
         <v>23</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7">
         <v>209</v>
       </c>
     </row>
@@ -17643,37 +17646,37 @@
       <c r="A8" s="4" t="s">
         <v>801</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8">
         <v>20</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8">
         <v>25</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8">
         <v>14</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8">
         <v>29</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8">
         <v>11</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8">
         <v>24</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8">
         <v>32</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8">
         <v>23</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8">
         <v>29</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8">
         <v>20</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8">
         <v>227</v>
       </c>
     </row>
@@ -17681,37 +17684,37 @@
       <c r="A9" s="4" t="s">
         <v>802</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9">
         <v>23</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9">
         <v>10</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9">
         <v>16</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9">
         <v>19</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9">
         <v>23</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9">
         <v>26</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9">
         <v>25</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9">
         <v>18</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9">
         <v>45</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9">
         <v>22</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9">
         <v>227</v>
       </c>
     </row>
@@ -17719,37 +17722,37 @@
       <c r="A10" s="4" t="s">
         <v>803</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10">
         <v>25</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10">
         <v>43</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10">
         <v>30</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10">
         <v>23</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10">
         <v>17</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10">
         <v>24</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10">
         <v>26</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10">
         <v>24</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10">
         <v>2</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10">
         <v>31</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10">
         <v>245</v>
       </c>
     </row>
@@ -17757,37 +17760,37 @@
       <c r="A11" s="4" t="s">
         <v>804</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11">
         <v>19</v>
       </c>
-      <c r="C11" s="5">
-        <v>1</v>
-      </c>
-      <c r="D11" s="5">
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>34</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11">
         <v>19</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11">
         <v>29</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11">
         <v>20</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11">
         <v>22</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11">
         <v>26</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11">
         <v>26</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11">
         <v>5</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11">
         <v>201</v>
       </c>
     </row>
@@ -17795,37 +17798,37 @@
       <c r="A12" s="4" t="s">
         <v>805</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12">
         <v>44</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12">
         <v>19</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12">
         <v>5</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12">
         <v>32</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12">
         <v>38</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12">
         <v>17</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12">
         <v>31</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12">
         <v>41</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12">
         <v>27</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12">
         <v>37</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12">
         <v>291</v>
       </c>
     </row>
@@ -17833,35 +17836,34 @@
       <c r="A13" s="4" t="s">
         <v>806</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13">
         <v>5</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13">
         <v>14</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13">
         <v>16</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13">
         <v>16</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13">
         <v>29</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13">
         <v>23</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13">
         <v>13</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13">
         <v>8</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13">
         <v>20</v>
       </c>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5">
+      <c r="L13">
         <v>144</v>
       </c>
     </row>
@@ -17869,37 +17871,37 @@
       <c r="A14" s="4" t="s">
         <v>807</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14">
         <v>43</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14">
         <v>17</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14">
         <v>27</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14">
         <v>24</v>
       </c>
-      <c r="F14" s="5">
-        <v>1</v>
-      </c>
-      <c r="G14" s="5">
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
         <v>30</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14">
         <v>29</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14">
         <v>30</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14">
         <v>17</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14">
         <v>26</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14">
         <v>244</v>
       </c>
     </row>
@@ -17907,37 +17909,37 @@
       <c r="A15" s="4" t="s">
         <v>808</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15">
         <v>20</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15">
         <v>17</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15">
         <v>29</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15">
         <v>41</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15">
         <v>25</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15">
         <v>25</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15">
         <v>26</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15">
         <v>25</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15">
         <v>21</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15">
         <v>30</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15">
         <v>259</v>
       </c>
     </row>
@@ -17945,37 +17947,37 @@
       <c r="A16" s="4" t="s">
         <v>809</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16">
         <v>20</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16">
         <v>38</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16">
         <v>29</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16">
         <v>8</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16">
         <v>21</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16">
         <v>11</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16">
         <v>22</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16">
         <v>23</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16">
         <v>15</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16">
         <v>17</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16">
         <v>204</v>
       </c>
     </row>
@@ -17983,37 +17985,37 @@
       <c r="A17" s="4" t="s">
         <v>795</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17">
         <v>310</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17">
         <v>273</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17">
         <v>272</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17">
         <v>257</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17">
         <v>256</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17">
         <v>280</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17">
         <v>282</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17">
         <v>278</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17">
         <v>243</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17">
         <v>251</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17">
         <v>2702</v>
       </c>
     </row>
@@ -18024,24 +18026,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J651"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J104" sqref="A1:J104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" customWidth="1"/>
-    <col min="9" max="9" width="5.85546875" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -18076,7 +18079,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -18108,7 +18111,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -18140,7 +18143,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -18172,7 +18175,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -18204,7 +18207,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -18236,7 +18239,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -18268,7 +18271,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -18332,7 +18335,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -18364,7 +18367,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -18396,7 +18399,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -18428,7 +18431,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -18460,7 +18463,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -18524,7 +18527,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -18588,7 +18591,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -18620,7 +18623,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -18652,7 +18655,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -18684,7 +18687,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -18716,7 +18719,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -18748,7 +18751,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -18780,7 +18783,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -18812,7 +18815,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>59</v>
       </c>
@@ -18844,7 +18847,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>59</v>
       </c>
@@ -18876,7 +18879,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -18908,7 +18911,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -18940,7 +18943,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>59</v>
       </c>
@@ -18972,7 +18975,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -19004,7 +19007,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -19036,7 +19039,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -19068,7 +19071,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -19100,7 +19103,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>59</v>
       </c>
@@ -19132,7 +19135,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -19164,7 +19167,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -19196,7 +19199,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>20</v>
       </c>
@@ -19228,7 +19231,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>28</v>
       </c>
@@ -19260,7 +19263,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>20</v>
       </c>
@@ -19324,7 +19327,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>28</v>
       </c>
@@ -19356,7 +19359,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>20</v>
       </c>
@@ -19388,7 +19391,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -19420,7 +19423,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>41</v>
       </c>
@@ -19452,7 +19455,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -19484,7 +19487,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>28</v>
       </c>
@@ -19516,7 +19519,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>20</v>
       </c>
@@ -19548,7 +19551,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>15</v>
       </c>
@@ -19612,7 +19615,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>15</v>
       </c>
@@ -19644,7 +19647,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>37</v>
       </c>
@@ -19708,7 +19711,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>20</v>
       </c>
@@ -19740,7 +19743,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>28</v>
       </c>
@@ -19772,7 +19775,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -19804,7 +19807,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>20</v>
       </c>
@@ -19836,7 +19839,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>10</v>
       </c>
@@ -19900,7 +19903,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>20</v>
       </c>
@@ -19932,7 +19935,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>20</v>
       </c>
@@ -19964,7 +19967,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>37</v>
       </c>
@@ -19996,7 +19999,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>49</v>
       </c>
@@ -20028,7 +20031,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>37</v>
       </c>
@@ -20092,7 +20095,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>37</v>
       </c>
@@ -20124,7 +20127,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>28</v>
       </c>
@@ -20156,7 +20159,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>49</v>
       </c>
@@ -20188,7 +20191,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>41</v>
       </c>
@@ -20220,7 +20223,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>24</v>
       </c>
@@ -20252,7 +20255,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>20</v>
       </c>
@@ -20284,7 +20287,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>10</v>
       </c>
@@ -20316,7 +20319,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>10</v>
       </c>
@@ -20348,7 +20351,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>32</v>
       </c>
@@ -20380,7 +20383,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>59</v>
       </c>
@@ -20412,7 +20415,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>20</v>
       </c>
@@ -20444,7 +20447,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>10</v>
       </c>
@@ -20476,7 +20479,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>28</v>
       </c>
@@ -20508,7 +20511,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>32</v>
       </c>
@@ -20540,7 +20543,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>28</v>
       </c>
@@ -20572,7 +20575,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>10</v>
       </c>
@@ -20604,7 +20607,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>41</v>
       </c>
@@ -20636,7 +20639,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>49</v>
       </c>
@@ -20668,7 +20671,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>32</v>
       </c>
@@ -20700,7 +20703,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>20</v>
       </c>
@@ -20732,7 +20735,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>20</v>
       </c>
@@ -20764,7 +20767,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>32</v>
       </c>
@@ -20796,7 +20799,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>10</v>
       </c>
@@ -20828,7 +20831,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>59</v>
       </c>
@@ -20860,7 +20863,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>59</v>
       </c>
@@ -20892,7 +20895,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>49</v>
       </c>
@@ -20924,7 +20927,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>49</v>
       </c>
@@ -20956,7 +20959,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>10</v>
       </c>
@@ -20988,7 +20991,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>20</v>
       </c>
@@ -21020,7 +21023,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>49</v>
       </c>
@@ -21052,7 +21055,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>49</v>
       </c>
@@ -21084,7 +21087,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>15</v>
       </c>
@@ -21116,7 +21119,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>32</v>
       </c>
@@ -21148,7 +21151,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>28</v>
       </c>
@@ -21180,7 +21183,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>10</v>
       </c>
@@ -21212,7 +21215,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>15</v>
       </c>
@@ -21244,7 +21247,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>49</v>
       </c>
@@ -21276,7 +21279,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>37</v>
       </c>
@@ -21308,7 +21311,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>32</v>
       </c>
@@ -21372,7 +21375,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>37</v>
       </c>
@@ -21404,7 +21407,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>59</v>
       </c>
@@ -21436,7 +21439,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>10</v>
       </c>
@@ -21468,7 +21471,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>20</v>
       </c>
@@ -21500,7 +21503,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>10</v>
       </c>
@@ -21532,7 +21535,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>59</v>
       </c>
@@ -21564,7 +21567,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>59</v>
       </c>
@@ -21596,7 +21599,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>32</v>
       </c>
@@ -21628,7 +21631,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>49</v>
       </c>
@@ -21660,7 +21663,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>20</v>
       </c>
@@ -21692,7 +21695,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>20</v>
       </c>
@@ -21724,7 +21727,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>10</v>
       </c>
@@ -21756,7 +21759,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>24</v>
       </c>
@@ -21788,7 +21791,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>20</v>
       </c>
@@ -21820,7 +21823,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>59</v>
       </c>
@@ -21852,7 +21855,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>49</v>
       </c>
@@ -21884,7 +21887,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>24</v>
       </c>
@@ -21916,7 +21919,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>49</v>
       </c>
@@ -21948,7 +21951,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>28</v>
       </c>
@@ -21980,7 +21983,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>41</v>
       </c>
@@ -22012,7 +22015,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>24</v>
       </c>
@@ -22044,7 +22047,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>32</v>
       </c>
@@ -22076,7 +22079,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>20</v>
       </c>
@@ -22108,7 +22111,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>59</v>
       </c>
@@ -22140,7 +22143,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>24</v>
       </c>
@@ -22172,7 +22175,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>28</v>
       </c>
@@ -22204,7 +22207,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>59</v>
       </c>
@@ -22236,7 +22239,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>10</v>
       </c>
@@ -22268,7 +22271,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>10</v>
       </c>
@@ -22300,7 +22303,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>41</v>
       </c>
@@ -22332,7 +22335,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>15</v>
       </c>
@@ -22364,7 +22367,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>10</v>
       </c>
@@ -22396,7 +22399,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>15</v>
       </c>
@@ -22428,7 +22431,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>41</v>
       </c>
@@ -22460,7 +22463,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>59</v>
       </c>
@@ -22492,7 +22495,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>49</v>
       </c>
@@ -22524,7 +22527,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>20</v>
       </c>
@@ -22556,7 +22559,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>15</v>
       </c>
@@ -22588,7 +22591,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>49</v>
       </c>
@@ -22620,7 +22623,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>59</v>
       </c>
@@ -22652,7 +22655,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>15</v>
       </c>
@@ -22684,7 +22687,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>10</v>
       </c>
@@ -22716,7 +22719,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>28</v>
       </c>
@@ -22748,7 +22751,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>10</v>
       </c>
@@ -22780,7 +22783,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>49</v>
       </c>
@@ -22812,7 +22815,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>15</v>
       </c>
@@ -22844,7 +22847,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>41</v>
       </c>
@@ -22876,7 +22879,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>59</v>
       </c>
@@ -22908,7 +22911,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>10</v>
       </c>
@@ -22940,7 +22943,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>20</v>
       </c>
@@ -22972,7 +22975,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>41</v>
       </c>
@@ -23004,7 +23007,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>37</v>
       </c>
@@ -23036,7 +23039,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>59</v>
       </c>
@@ -23068,7 +23071,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>28</v>
       </c>
@@ -23100,7 +23103,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>41</v>
       </c>
@@ -23132,7 +23135,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>15</v>
       </c>
@@ -23164,7 +23167,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>20</v>
       </c>
@@ -23196,7 +23199,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>59</v>
       </c>
@@ -23228,7 +23231,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>20</v>
       </c>
@@ -23260,7 +23263,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>32</v>
       </c>
@@ -23292,7 +23295,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>59</v>
       </c>
@@ -23324,7 +23327,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>20</v>
       </c>
@@ -23356,7 +23359,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>28</v>
       </c>
@@ -23388,7 +23391,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>59</v>
       </c>
@@ -23420,7 +23423,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>10</v>
       </c>
@@ -23452,7 +23455,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>10</v>
       </c>
@@ -23484,7 +23487,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>32</v>
       </c>
@@ -23516,7 +23519,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>41</v>
       </c>
@@ -23548,7 +23551,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>32</v>
       </c>
@@ -23580,7 +23583,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>20</v>
       </c>
@@ -23612,7 +23615,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>10</v>
       </c>
@@ -23644,7 +23647,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>32</v>
       </c>
@@ -23676,7 +23679,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>28</v>
       </c>
@@ -23708,7 +23711,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>49</v>
       </c>
@@ -23740,7 +23743,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>37</v>
       </c>
@@ -23772,7 +23775,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>32</v>
       </c>
@@ -23804,7 +23807,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>20</v>
       </c>
@@ -23836,7 +23839,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>37</v>
       </c>
@@ -23868,7 +23871,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>41</v>
       </c>
@@ -23900,7 +23903,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>28</v>
       </c>
@@ -23932,7 +23935,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>24</v>
       </c>
@@ -23964,7 +23967,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>32</v>
       </c>
@@ -23996,7 +23999,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>20</v>
       </c>
@@ -24028,7 +24031,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>15</v>
       </c>
@@ -24060,7 +24063,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>32</v>
       </c>
@@ -24092,7 +24095,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>49</v>
       </c>
@@ -24124,7 +24127,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>41</v>
       </c>
@@ -24156,7 +24159,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>24</v>
       </c>
@@ -24188,7 +24191,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>32</v>
       </c>
@@ -24220,7 +24223,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>41</v>
       </c>
@@ -24252,7 +24255,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>24</v>
       </c>
@@ -24284,7 +24287,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>41</v>
       </c>
@@ -24316,7 +24319,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>24</v>
       </c>
@@ -24348,7 +24351,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>24</v>
       </c>
@@ -24380,7 +24383,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>41</v>
       </c>
@@ -24412,7 +24415,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>41</v>
       </c>
@@ -24444,7 +24447,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>24</v>
       </c>
@@ -24476,7 +24479,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>41</v>
       </c>
@@ -24508,7 +24511,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>49</v>
       </c>
@@ -24540,7 +24543,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>59</v>
       </c>
@@ -24572,7 +24575,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>49</v>
       </c>
@@ -24604,7 +24607,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>49</v>
       </c>
@@ -24636,7 +24639,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>41</v>
       </c>
@@ -24668,7 +24671,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>24</v>
       </c>
@@ -24700,7 +24703,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>59</v>
       </c>
@@ -24732,7 +24735,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>37</v>
       </c>
@@ -24764,7 +24767,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>32</v>
       </c>
@@ -24796,7 +24799,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>10</v>
       </c>
@@ -24828,7 +24831,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>59</v>
       </c>
@@ -24860,7 +24863,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>15</v>
       </c>
@@ -24892,7 +24895,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>37</v>
       </c>
@@ -24924,7 +24927,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>32</v>
       </c>
@@ -24956,7 +24959,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>15</v>
       </c>
@@ -24988,7 +24991,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>37</v>
       </c>
@@ -25020,7 +25023,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>20</v>
       </c>
@@ -25052,7 +25055,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>59</v>
       </c>
@@ -25084,7 +25087,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>41</v>
       </c>
@@ -25116,7 +25119,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>20</v>
       </c>
@@ -25148,7 +25151,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>59</v>
       </c>
@@ -25180,7 +25183,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>32</v>
       </c>
@@ -25212,7 +25215,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>20</v>
       </c>
@@ -25244,7 +25247,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>28</v>
       </c>
@@ -25276,7 +25279,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>49</v>
       </c>
@@ -25308,7 +25311,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>37</v>
       </c>
@@ -25340,7 +25343,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>28</v>
       </c>
@@ -25372,7 +25375,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>32</v>
       </c>
@@ -25404,7 +25407,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>32</v>
       </c>
@@ -25436,7 +25439,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>28</v>
       </c>
@@ -25468,7 +25471,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>59</v>
       </c>
@@ -25500,7 +25503,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>20</v>
       </c>
@@ -25532,7 +25535,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>20</v>
       </c>
@@ -25564,7 +25567,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>24</v>
       </c>
@@ -25596,7 +25599,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>20</v>
       </c>
@@ -25628,7 +25631,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>10</v>
       </c>
@@ -25660,7 +25663,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>32</v>
       </c>
@@ -25692,7 +25695,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>20</v>
       </c>
@@ -25724,7 +25727,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>49</v>
       </c>
@@ -25756,7 +25759,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>32</v>
       </c>
@@ -25788,7 +25791,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>24</v>
       </c>
@@ -25820,7 +25823,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>59</v>
       </c>
@@ -25852,7 +25855,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>24</v>
       </c>
@@ -25884,7 +25887,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>20</v>
       </c>
@@ -25916,7 +25919,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>24</v>
       </c>
@@ -25948,7 +25951,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>10</v>
       </c>
@@ -25980,7 +25983,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>24</v>
       </c>
@@ -26012,7 +26015,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>32</v>
       </c>
@@ -26044,7 +26047,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>59</v>
       </c>
@@ -26076,7 +26079,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>15</v>
       </c>
@@ -26108,7 +26111,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>59</v>
       </c>
@@ -26140,7 +26143,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>10</v>
       </c>
@@ -26172,7 +26175,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>32</v>
       </c>
@@ -26204,7 +26207,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>41</v>
       </c>
@@ -26236,7 +26239,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>59</v>
       </c>
@@ -26268,7 +26271,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>41</v>
       </c>
@@ -26300,7 +26303,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>24</v>
       </c>
@@ -26332,7 +26335,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>24</v>
       </c>
@@ -26364,7 +26367,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>59</v>
       </c>
@@ -26396,7 +26399,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>37</v>
       </c>
@@ -26428,7 +26431,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>15</v>
       </c>
@@ -26460,7 +26463,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>15</v>
       </c>
@@ -26492,7 +26495,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>41</v>
       </c>
@@ -26524,7 +26527,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>41</v>
       </c>
@@ -26556,7 +26559,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>49</v>
       </c>
@@ -26588,7 +26591,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>20</v>
       </c>
@@ -26620,7 +26623,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>49</v>
       </c>
@@ -26652,7 +26655,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>20</v>
       </c>
@@ -26684,7 +26687,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>32</v>
       </c>
@@ -26716,7 +26719,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>49</v>
       </c>
@@ -26748,7 +26751,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>20</v>
       </c>
@@ -26780,7 +26783,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>28</v>
       </c>
@@ -26812,7 +26815,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>59</v>
       </c>
@@ -26844,7 +26847,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>24</v>
       </c>
@@ -26876,7 +26879,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>32</v>
       </c>
@@ -26908,7 +26911,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>32</v>
       </c>
@@ -26940,7 +26943,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>41</v>
       </c>
@@ -26972,7 +26975,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>37</v>
       </c>
@@ -27004,7 +27007,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>20</v>
       </c>
@@ -27036,7 +27039,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>28</v>
       </c>
@@ -27068,7 +27071,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>20</v>
       </c>
@@ -27100,7 +27103,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>24</v>
       </c>
@@ -27132,7 +27135,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>49</v>
       </c>
@@ -27164,7 +27167,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>32</v>
       </c>
@@ -27196,7 +27199,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>41</v>
       </c>
@@ -27228,7 +27231,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>28</v>
       </c>
@@ -27260,7 +27263,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>32</v>
       </c>
@@ -27292,7 +27295,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>24</v>
       </c>
@@ -27324,7 +27327,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>49</v>
       </c>
@@ -27356,7 +27359,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>59</v>
       </c>
@@ -27388,7 +27391,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>20</v>
       </c>
@@ -27420,7 +27423,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>59</v>
       </c>
@@ -27452,7 +27455,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>32</v>
       </c>
@@ -27484,7 +27487,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>49</v>
       </c>
@@ -27516,7 +27519,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>59</v>
       </c>
@@ -27548,7 +27551,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>41</v>
       </c>
@@ -27580,7 +27583,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>24</v>
       </c>
@@ -27612,7 +27615,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>49</v>
       </c>
@@ -27644,7 +27647,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>41</v>
       </c>
@@ -27676,7 +27679,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>28</v>
       </c>
@@ -27708,7 +27711,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>49</v>
       </c>
@@ -27740,7 +27743,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>49</v>
       </c>
@@ -27772,7 +27775,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>32</v>
       </c>
@@ -27804,7 +27807,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>41</v>
       </c>
@@ -27836,7 +27839,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>15</v>
       </c>
@@ -27868,7 +27871,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>24</v>
       </c>
@@ -27900,7 +27903,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>41</v>
       </c>
@@ -27932,7 +27935,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>41</v>
       </c>
@@ -27964,7 +27967,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>10</v>
       </c>
@@ -27996,7 +27999,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>41</v>
       </c>
@@ -28028,7 +28031,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>32</v>
       </c>
@@ -28060,7 +28063,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>20</v>
       </c>
@@ -28092,7 +28095,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>24</v>
       </c>
@@ -28124,7 +28127,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>32</v>
       </c>
@@ -28156,7 +28159,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>32</v>
       </c>
@@ -28188,7 +28191,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>10</v>
       </c>
@@ -28220,7 +28223,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>32</v>
       </c>
@@ -28252,7 +28255,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>41</v>
       </c>
@@ -28284,7 +28287,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>10</v>
       </c>
@@ -28316,7 +28319,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>37</v>
       </c>
@@ -28348,7 +28351,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>15</v>
       </c>
@@ -28380,7 +28383,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>10</v>
       </c>
@@ -28412,7 +28415,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>41</v>
       </c>
@@ -28444,7 +28447,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>15</v>
       </c>
@@ -28476,7 +28479,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>37</v>
       </c>
@@ -28508,7 +28511,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>59</v>
       </c>
@@ -28540,7 +28543,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>20</v>
       </c>
@@ -28572,7 +28575,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>20</v>
       </c>
@@ -28604,7 +28607,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>15</v>
       </c>
@@ -28636,7 +28639,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>37</v>
       </c>
@@ -28668,7 +28671,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>20</v>
       </c>
@@ -28700,7 +28703,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>15</v>
       </c>
@@ -28732,7 +28735,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>10</v>
       </c>
@@ -28764,7 +28767,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>37</v>
       </c>
@@ -28796,7 +28799,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>20</v>
       </c>
@@ -28828,7 +28831,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>28</v>
       </c>
@@ -28860,7 +28863,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>15</v>
       </c>
@@ -28892,7 +28895,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>37</v>
       </c>
@@ -28924,7 +28927,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>49</v>
       </c>
@@ -28956,7 +28959,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>20</v>
       </c>
@@ -28988,7 +28991,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>10</v>
       </c>
@@ -29020,7 +29023,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>49</v>
       </c>
@@ -29052,7 +29055,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>41</v>
       </c>
@@ -29084,7 +29087,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>20</v>
       </c>
@@ -29116,7 +29119,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>28</v>
       </c>
@@ -29148,7 +29151,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>49</v>
       </c>
@@ -29180,7 +29183,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>41</v>
       </c>
@@ -29212,7 +29215,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>10</v>
       </c>
@@ -29244,7 +29247,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>15</v>
       </c>
@@ -29276,7 +29279,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>37</v>
       </c>
@@ -29308,7 +29311,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>37</v>
       </c>
@@ -29340,7 +29343,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>49</v>
       </c>
@@ -29372,7 +29375,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>15</v>
       </c>
@@ -29404,7 +29407,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>59</v>
       </c>
@@ -29436,7 +29439,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>28</v>
       </c>
@@ -29468,7 +29471,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>32</v>
       </c>
@@ -29500,7 +29503,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>37</v>
       </c>
@@ -29532,7 +29535,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>41</v>
       </c>
@@ -29564,7 +29567,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>37</v>
       </c>
@@ -29596,7 +29599,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>15</v>
       </c>
@@ -29628,7 +29631,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>20</v>
       </c>
@@ -29660,7 +29663,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>59</v>
       </c>
@@ -29692,7 +29695,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>32</v>
       </c>
@@ -29724,7 +29727,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>20</v>
       </c>
@@ -29756,7 +29759,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>49</v>
       </c>
@@ -29788,7 +29791,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>20</v>
       </c>
@@ -29820,7 +29823,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>41</v>
       </c>
@@ -29852,7 +29855,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>49</v>
       </c>
@@ -29884,7 +29887,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>20</v>
       </c>
@@ -29916,7 +29919,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>24</v>
       </c>
@@ -29948,7 +29951,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>20</v>
       </c>
@@ -29980,7 +29983,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>10</v>
       </c>
@@ -30012,7 +30015,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>49</v>
       </c>
@@ -30044,7 +30047,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>49</v>
       </c>
@@ -30076,7 +30079,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>59</v>
       </c>
@@ -30108,7 +30111,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>37</v>
       </c>
@@ -30140,7 +30143,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>32</v>
       </c>
@@ -30172,7 +30175,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>59</v>
       </c>
@@ -30204,7 +30207,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>24</v>
       </c>
@@ -30236,7 +30239,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>24</v>
       </c>
@@ -30268,7 +30271,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>59</v>
       </c>
@@ -30300,7 +30303,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>15</v>
       </c>
@@ -30332,7 +30335,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>24</v>
       </c>
@@ -30364,7 +30367,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>37</v>
       </c>
@@ -30396,7 +30399,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>20</v>
       </c>
@@ -30428,7 +30431,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>28</v>
       </c>
@@ -30460,7 +30463,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>15</v>
       </c>
@@ -30492,7 +30495,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>28</v>
       </c>
@@ -30524,7 +30527,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>10</v>
       </c>
@@ -30556,7 +30559,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>20</v>
       </c>
@@ -30588,7 +30591,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>32</v>
       </c>
@@ -30620,7 +30623,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>32</v>
       </c>
@@ -30652,7 +30655,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>28</v>
       </c>
@@ -30684,7 +30687,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>28</v>
       </c>
@@ -30716,7 +30719,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>59</v>
       </c>
@@ -30748,7 +30751,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>20</v>
       </c>
@@ -30780,7 +30783,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>41</v>
       </c>
@@ -30812,7 +30815,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>32</v>
       </c>
@@ -30844,7 +30847,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>32</v>
       </c>
@@ -30876,7 +30879,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>59</v>
       </c>
@@ -30908,7 +30911,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>15</v>
       </c>
@@ -30940,7 +30943,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>37</v>
       </c>
@@ -30972,7 +30975,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>59</v>
       </c>
@@ -31004,7 +31007,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>41</v>
       </c>
@@ -31036,7 +31039,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>41</v>
       </c>
@@ -31068,7 +31071,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>15</v>
       </c>
@@ -31100,7 +31103,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>41</v>
       </c>
@@ -31132,7 +31135,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>15</v>
       </c>
@@ -31164,7 +31167,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>37</v>
       </c>
@@ -31196,7 +31199,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>59</v>
       </c>
@@ -31228,7 +31231,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>24</v>
       </c>
@@ -31260,7 +31263,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>32</v>
       </c>
@@ -31292,7 +31295,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>15</v>
       </c>
@@ -31324,7 +31327,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>15</v>
       </c>
@@ -31356,7 +31359,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>20</v>
       </c>
@@ -31388,7 +31391,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>59</v>
       </c>
@@ -31420,7 +31423,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>24</v>
       </c>
@@ -31452,7 +31455,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>32</v>
       </c>
@@ -31484,7 +31487,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>37</v>
       </c>
@@ -31516,7 +31519,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>49</v>
       </c>
@@ -31548,7 +31551,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>15</v>
       </c>
@@ -31580,7 +31583,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>59</v>
       </c>
@@ -31612,7 +31615,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>41</v>
       </c>
@@ -31644,7 +31647,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>37</v>
       </c>
@@ -31676,7 +31679,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>15</v>
       </c>
@@ -31708,7 +31711,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>24</v>
       </c>
@@ -31740,7 +31743,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>15</v>
       </c>
@@ -31772,7 +31775,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>24</v>
       </c>
@@ -31804,7 +31807,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>37</v>
       </c>
@@ -31836,7 +31839,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>49</v>
       </c>
@@ -31868,7 +31871,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>37</v>
       </c>
@@ -31900,7 +31903,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>49</v>
       </c>
@@ -31932,7 +31935,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>24</v>
       </c>
@@ -31964,7 +31967,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>49</v>
       </c>
@@ -31996,7 +31999,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>10</v>
       </c>
@@ -32028,7 +32031,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>24</v>
       </c>
@@ -32060,7 +32063,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>37</v>
       </c>
@@ -32092,7 +32095,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>10</v>
       </c>
@@ -32124,7 +32127,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>49</v>
       </c>
@@ -32156,7 +32159,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>24</v>
       </c>
@@ -32188,7 +32191,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>28</v>
       </c>
@@ -32220,7 +32223,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>37</v>
       </c>
@@ -32252,7 +32255,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>37</v>
       </c>
@@ -32284,7 +32287,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>10</v>
       </c>
@@ -32316,7 +32319,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>28</v>
       </c>
@@ -32348,7 +32351,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>49</v>
       </c>
@@ -32380,7 +32383,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>24</v>
       </c>
@@ -32412,7 +32415,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>37</v>
       </c>
@@ -32444,7 +32447,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>10</v>
       </c>
@@ -32476,7 +32479,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>28</v>
       </c>
@@ -32508,7 +32511,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>20</v>
       </c>
@@ -32540,7 +32543,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>28</v>
       </c>
@@ -32572,7 +32575,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>49</v>
       </c>
@@ -32604,7 +32607,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>10</v>
       </c>
@@ -32636,7 +32639,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>59</v>
       </c>
@@ -32668,7 +32671,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>37</v>
       </c>
@@ -32700,7 +32703,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>49</v>
       </c>
@@ -32732,7 +32735,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>20</v>
       </c>
@@ -32764,7 +32767,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>28</v>
       </c>
@@ -32796,7 +32799,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>20</v>
       </c>
@@ -32828,7 +32831,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>59</v>
       </c>
@@ -32860,7 +32863,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>49</v>
       </c>
@@ -32892,7 +32895,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>59</v>
       </c>
@@ -32924,7 +32927,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>37</v>
       </c>
@@ -32956,7 +32959,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>20</v>
       </c>
@@ -32988,7 +32991,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="468" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>49</v>
       </c>
@@ -33020,7 +33023,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>59</v>
       </c>
@@ -33052,7 +33055,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>59</v>
       </c>
@@ -33084,7 +33087,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>20</v>
       </c>
@@ -33116,7 +33119,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="472" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>49</v>
       </c>
@@ -33148,7 +33151,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>37</v>
       </c>
@@ -33180,7 +33183,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>41</v>
       </c>
@@ -33212,7 +33215,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="475" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>49</v>
       </c>
@@ -33244,7 +33247,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="476" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>15</v>
       </c>
@@ -33276,7 +33279,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="477" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>28</v>
       </c>
@@ -33308,7 +33311,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>24</v>
       </c>
@@ -33340,7 +33343,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>41</v>
       </c>
@@ -33372,7 +33375,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="480" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>24</v>
       </c>
@@ -33404,7 +33407,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>20</v>
       </c>
@@ -33436,7 +33439,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>28</v>
       </c>
@@ -33468,7 +33471,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>37</v>
       </c>
@@ -33500,7 +33503,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="484" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>15</v>
       </c>
@@ -33532,7 +33535,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="485" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>24</v>
       </c>
@@ -33564,7 +33567,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="486" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>15</v>
       </c>
@@ -33596,7 +33599,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>20</v>
       </c>
@@ -33628,7 +33631,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="488" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>15</v>
       </c>
@@ -33660,7 +33663,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="489" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>24</v>
       </c>
@@ -33692,7 +33695,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="490" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>37</v>
       </c>
@@ -33724,7 +33727,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="491" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>28</v>
       </c>
@@ -33756,7 +33759,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>49</v>
       </c>
@@ -33788,7 +33791,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>20</v>
       </c>
@@ -33820,7 +33823,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>28</v>
       </c>
@@ -33852,7 +33855,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>15</v>
       </c>
@@ -33884,7 +33887,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>28</v>
       </c>
@@ -33916,7 +33919,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="497" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>49</v>
       </c>
@@ -33948,7 +33951,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="498" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>20</v>
       </c>
@@ -33980,7 +33983,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="499" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>28</v>
       </c>
@@ -34012,7 +34015,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="500" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>10</v>
       </c>
@@ -34044,7 +34047,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="501" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>15</v>
       </c>
@@ -34076,7 +34079,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="502" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>10</v>
       </c>
@@ -34108,7 +34111,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="503" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>59</v>
       </c>
@@ -34140,7 +34143,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="504" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>32</v>
       </c>
@@ -34172,7 +34175,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="505" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>28</v>
       </c>
@@ -34204,7 +34207,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="506" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>32</v>
       </c>
@@ -34236,7 +34239,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="507" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>24</v>
       </c>
@@ -34268,7 +34271,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="508" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>32</v>
       </c>
@@ -34300,7 +34303,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="509" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>32</v>
       </c>
@@ -34332,7 +34335,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="510" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>59</v>
       </c>
@@ -34364,7 +34367,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="511" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>10</v>
       </c>
@@ -34396,7 +34399,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="512" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>10</v>
       </c>
@@ -34428,7 +34431,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="513" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>28</v>
       </c>
@@ -34460,7 +34463,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="514" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>15</v>
       </c>
@@ -34492,7 +34495,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="515" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>28</v>
       </c>
@@ -34524,7 +34527,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="516" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>59</v>
       </c>
@@ -34556,7 +34559,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="517" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>10</v>
       </c>
@@ -34588,7 +34591,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="518" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>20</v>
       </c>
@@ -34620,7 +34623,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="519" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>37</v>
       </c>
@@ -34652,7 +34655,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="520" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>15</v>
       </c>
@@ -34684,7 +34687,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="521" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>59</v>
       </c>
@@ -34716,7 +34719,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="522" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>59</v>
       </c>
@@ -34748,7 +34751,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="523" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>24</v>
       </c>
@@ -34780,7 +34783,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="524" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>10</v>
       </c>
@@ -34812,7 +34815,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="525" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>28</v>
       </c>
@@ -34844,7 +34847,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="526" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>10</v>
       </c>
@@ -34876,7 +34879,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="527" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>15</v>
       </c>
@@ -34908,7 +34911,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="528" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>59</v>
       </c>
@@ -34940,7 +34943,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="529" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>24</v>
       </c>
@@ -34972,7 +34975,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="530" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>41</v>
       </c>
@@ -35004,7 +35007,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="531" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>24</v>
       </c>
@@ -35036,7 +35039,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="532" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>15</v>
       </c>
@@ -35068,7 +35071,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="533" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>24</v>
       </c>
@@ -35100,7 +35103,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="534" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>49</v>
       </c>
@@ -35132,7 +35135,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="535" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>10</v>
       </c>
@@ -35164,7 +35167,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="536" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>24</v>
       </c>
@@ -35196,7 +35199,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="537" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>49</v>
       </c>
@@ -35228,7 +35231,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="538" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>32</v>
       </c>
@@ -35260,7 +35263,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="539" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>32</v>
       </c>
@@ -35292,7 +35295,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="540" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>59</v>
       </c>
@@ -35324,7 +35327,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="541" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>49</v>
       </c>
@@ -35356,7 +35359,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="542" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>32</v>
       </c>
@@ -35388,7 +35391,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="543" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>32</v>
       </c>
@@ -35420,7 +35423,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="544" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>49</v>
       </c>
@@ -35452,7 +35455,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="545" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>24</v>
       </c>
@@ -35484,7 +35487,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="546" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>41</v>
       </c>
@@ -35516,7 +35519,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="547" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>49</v>
       </c>
@@ -35548,7 +35551,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="548" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>32</v>
       </c>
@@ -35580,7 +35583,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="549" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>20</v>
       </c>
@@ -35612,7 +35615,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="550" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>41</v>
       </c>
@@ -35644,7 +35647,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="551" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>10</v>
       </c>
@@ -35676,7 +35679,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="552" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>28</v>
       </c>
@@ -35708,7 +35711,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="553" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>41</v>
       </c>
@@ -35740,7 +35743,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="554" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>20</v>
       </c>
@@ -35772,7 +35775,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="555" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>49</v>
       </c>
@@ -35804,7 +35807,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="556" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>41</v>
       </c>
@@ -35836,7 +35839,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="557" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>20</v>
       </c>
@@ -35868,7 +35871,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="558" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>28</v>
       </c>
@@ -35900,7 +35903,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="559" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>20</v>
       </c>
@@ -35932,7 +35935,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="560" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>59</v>
       </c>
@@ -35964,7 +35967,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="561" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>10</v>
       </c>
@@ -35996,7 +35999,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="562" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>41</v>
       </c>
@@ -36028,7 +36031,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="563" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>32</v>
       </c>
@@ -36060,7 +36063,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="564" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>41</v>
       </c>
@@ -36092,7 +36095,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="565" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>32</v>
       </c>
@@ -36124,7 +36127,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="566" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>24</v>
       </c>
@@ -36156,7 +36159,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="567" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>59</v>
       </c>
@@ -36188,7 +36191,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="568" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>24</v>
       </c>
@@ -36220,7 +36223,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="569" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>59</v>
       </c>
@@ -36252,7 +36255,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="570" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>28</v>
       </c>
@@ -36284,7 +36287,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="571" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>20</v>
       </c>
@@ -36316,7 +36319,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="572" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>37</v>
       </c>
@@ -36348,7 +36351,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="573" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>24</v>
       </c>
@@ -36380,7 +36383,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="574" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>37</v>
       </c>
@@ -36412,7 +36415,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="575" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>28</v>
       </c>
@@ -36444,7 +36447,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="576" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>10</v>
       </c>
@@ -36476,7 +36479,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="577" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>59</v>
       </c>
@@ -36508,7 +36511,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="578" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>28</v>
       </c>
@@ -36540,7 +36543,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="579" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>37</v>
       </c>
@@ -36572,7 +36575,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="580" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>59</v>
       </c>
@@ -36604,7 +36607,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="581" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>24</v>
       </c>
@@ -36636,7 +36639,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="582" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>10</v>
       </c>
@@ -36668,7 +36671,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="583" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>28</v>
       </c>
@@ -36700,7 +36703,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="584" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>41</v>
       </c>
@@ -36732,7 +36735,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="585" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>24</v>
       </c>
@@ -36764,7 +36767,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="586" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>10</v>
       </c>
@@ -36796,7 +36799,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="587" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>59</v>
       </c>
@@ -36828,7 +36831,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="588" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>59</v>
       </c>
@@ -36860,7 +36863,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="589" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>10</v>
       </c>
@@ -36892,7 +36895,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="590" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>24</v>
       </c>
@@ -36924,7 +36927,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="591" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>10</v>
       </c>
@@ -36956,7 +36959,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="592" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>59</v>
       </c>
@@ -36988,7 +36991,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="593" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>41</v>
       </c>
@@ -37020,7 +37023,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="594" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>24</v>
       </c>
@@ -37052,7 +37055,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="595" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>28</v>
       </c>
@@ -37084,7 +37087,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="596" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>41</v>
       </c>
@@ -37116,7 +37119,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="597" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>59</v>
       </c>
@@ -37148,7 +37151,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="598" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>59</v>
       </c>
@@ -37180,7 +37183,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="599" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>24</v>
       </c>
@@ -37212,7 +37215,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="600" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>10</v>
       </c>
@@ -37244,7 +37247,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="601" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>15</v>
       </c>
@@ -37276,7 +37279,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="602" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>10</v>
       </c>
@@ -37308,7 +37311,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="603" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>28</v>
       </c>
@@ -37340,7 +37343,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="604" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>24</v>
       </c>
@@ -37372,7 +37375,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="605" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>49</v>
       </c>
@@ -37404,7 +37407,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="606" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>32</v>
       </c>
@@ -37436,7 +37439,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="607" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>20</v>
       </c>
@@ -37468,7 +37471,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="608" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>49</v>
       </c>
@@ -37500,7 +37503,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="609" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>24</v>
       </c>
@@ -37532,7 +37535,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="610" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>41</v>
       </c>
@@ -37564,7 +37567,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="611" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>32</v>
       </c>
@@ -37596,7 +37599,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="612" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>41</v>
       </c>
@@ -37628,7 +37631,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="613" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>20</v>
       </c>
@@ -37660,7 +37663,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="614" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>10</v>
       </c>
@@ -37692,7 +37695,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="615" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>10</v>
       </c>
@@ -37724,7 +37727,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="616" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>20</v>
       </c>
@@ -37756,7 +37759,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="617" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>20</v>
       </c>
@@ -37788,7 +37791,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="618" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>49</v>
       </c>
@@ -37820,7 +37823,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="619" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>10</v>
       </c>
@@ -37852,7 +37855,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="620" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>28</v>
       </c>
@@ -37884,7 +37887,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="621" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>41</v>
       </c>
@@ -37916,7 +37919,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="622" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>20</v>
       </c>
@@ -37948,7 +37951,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="623" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>28</v>
       </c>
@@ -37980,7 +37983,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="624" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>32</v>
       </c>
@@ -38012,7 +38015,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="625" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>37</v>
       </c>
@@ -38044,7 +38047,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="626" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>15</v>
       </c>
@@ -38076,7 +38079,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="627" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>24</v>
       </c>
@@ -38108,7 +38111,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="628" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>20</v>
       </c>
@@ -38140,7 +38143,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="629" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>32</v>
       </c>
@@ -38172,7 +38175,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="630" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>20</v>
       </c>
@@ -38204,7 +38207,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="631" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>20</v>
       </c>
@@ -38236,7 +38239,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="632" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>32</v>
       </c>
@@ -38268,7 +38271,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="633" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>37</v>
       </c>
@@ -38300,7 +38303,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="634" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>49</v>
       </c>
@@ -38332,7 +38335,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="635" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>20</v>
       </c>
@@ -38364,7 +38367,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="636" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>20</v>
       </c>
@@ -38396,7 +38399,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="637" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>59</v>
       </c>
@@ -38428,7 +38431,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="638" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>37</v>
       </c>
@@ -38460,7 +38463,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="639" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>37</v>
       </c>
@@ -38492,7 +38495,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="640" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>10</v>
       </c>
@@ -38524,7 +38527,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="641" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>32</v>
       </c>
@@ -38556,7 +38559,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="642" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>10</v>
       </c>
@@ -38588,7 +38591,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="643" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>32</v>
       </c>
@@ -38620,7 +38623,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="644" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>37</v>
       </c>
@@ -38652,7 +38655,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="645" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>37</v>
       </c>
@@ -38684,7 +38687,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="646" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>41</v>
       </c>
@@ -38716,7 +38719,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="647" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>59</v>
       </c>
@@ -38748,7 +38751,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="648" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>10</v>
       </c>
@@ -38780,7 +38783,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="649" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>41</v>
       </c>
@@ -38812,7 +38815,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="650" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>20</v>
       </c>
@@ -38844,7 +38847,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="651" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>10</v>
       </c>
@@ -38877,17 +38880,353 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J651" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Mahmoud"/>
+        <filter val="Mariem"/>
+        <filter val="Meriem"/>
+        <filter val="Mohamed"/>
+        <filter val="Mohammed"/>
+        <filter val="Monia"/>
+        <filter val="Mouhamed"/>
+        <filter val="Mouna"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="6">
+      <filters>
+        <dateGroupItem year="2022" month="1" dateTimeGrouping="month"/>
+        <dateGroupItem year="2022" month="2" dateTimeGrouping="month"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38EE38EB-8AB4-437C-8455-58311A58FBD9}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="2">
+        <v>44564</v>
+      </c>
+      <c r="G2" s="2">
+        <v>44566</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>60</v>
+      </c>
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="2">
+        <v>44566</v>
+      </c>
+      <c r="G3" s="2">
+        <v>44575</v>
+      </c>
+      <c r="H3">
+        <v>9</v>
+      </c>
+      <c r="I3">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>80</v>
+      </c>
+      <c r="D4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="2">
+        <v>44566</v>
+      </c>
+      <c r="G4" s="2">
+        <v>44568</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5">
+        <v>60</v>
+      </c>
+      <c r="D5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5" s="2">
+        <v>44582</v>
+      </c>
+      <c r="G5" s="2">
+        <v>44591</v>
+      </c>
+      <c r="H5">
+        <v>9</v>
+      </c>
+      <c r="I5">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6">
+        <v>60</v>
+      </c>
+      <c r="D6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F6" s="2">
+        <v>44586</v>
+      </c>
+      <c r="G6" s="2">
+        <v>44596</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7">
+        <v>70</v>
+      </c>
+      <c r="D7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44588</v>
+      </c>
+      <c r="G7" s="2">
+        <v>44593</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8">
+        <v>60</v>
+      </c>
+      <c r="D8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E8" t="s">
+        <v>176</v>
+      </c>
+      <c r="F8" s="2">
+        <v>44591</v>
+      </c>
+      <c r="G8" s="2">
+        <v>44593</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>80</v>
+      </c>
+      <c r="D9" t="s">
+        <v>193</v>
+      </c>
+      <c r="E9" t="s">
+        <v>194</v>
+      </c>
+      <c r="F9" s="2">
+        <v>44596</v>
+      </c>
+      <c r="G9" s="2">
+        <v>44597</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10">
+        <v>70</v>
+      </c>
+      <c r="D10" t="s">
+        <v>280</v>
+      </c>
+      <c r="E10" t="s">
+        <v>281</v>
+      </c>
+      <c r="F10" s="2">
+        <v>44618</v>
+      </c>
+      <c r="G10" s="2">
+        <v>44619</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39080,7 +39419,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C256"/>
   <sheetViews>
